--- a/app/assets/downloads/Newable-status-report-June-2023.xlsx
+++ b/app/assets/downloads/Newable-status-report-June-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/Prototypes/ukef/prototypekit-stb-bank/app/assets/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36297C26-D200-CB4A-8056-F7BF9958F87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521230D8-B0D1-BB4F-8D28-957E45FD0013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18680" yWindow="-23920" windowWidth="41460" windowHeight="20200" xr2:uid="{6BDF98CE-C6B7-004B-B507-299FF645EC01}"/>
+    <workbookView xWindow="1540" yWindow="-23620" windowWidth="41460" windowHeight="20200" xr2:uid="{6BDF98CE-C6B7-004B-B507-299FF645EC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Download" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
   <si>
     <t>UKEF facility ID</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Cryo Construction TNPQ387</t>
+  </si>
+  <si>
+    <t>GEF/SANT/00156648632/NEWABLE BUSINESS</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
     <col min="7" max="7" width="22.83203125" style="7" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" style="7" customWidth="1"/>
     <col min="9" max="9" width="32.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="54.6640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1132,6 +1135,9 @@
       <c r="I4" s="9">
         <v>367.23</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -1158,6 +1164,9 @@
       <c r="I5" s="9">
         <v>101.2</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -1182,6 +1191,9 @@
       <c r="I6" s="9">
         <v>976.23</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
@@ -1208,6 +1220,9 @@
       <c r="I7" s="9">
         <v>1028.3399999999999</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -1234,6 +1249,9 @@
       <c r="I8" s="9">
         <v>1568.25</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -1260,6 +1278,9 @@
       <c r="I9" s="9">
         <v>945.45</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
@@ -1286,6 +1307,9 @@
       <c r="I10" s="9">
         <v>567.16</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
@@ -1312,6 +1336,9 @@
       <c r="I11" s="9">
         <v>245.23</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
@@ -1338,6 +1365,9 @@
       <c r="I12" s="9">
         <v>512.34</v>
       </c>
+      <c r="J12" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -1364,6 +1394,9 @@
       <c r="I13" s="9">
         <v>529.87</v>
       </c>
+      <c r="J13" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
@@ -1390,6 +1423,9 @@
       <c r="I14" s="9">
         <v>867.53</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
@@ -1416,6 +1452,9 @@
       <c r="I15" s="9">
         <v>512.23</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
@@ -1442,8 +1481,11 @@
       <c r="I16" s="9">
         <v>986.34</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
@@ -1468,8 +1510,11 @@
       <c r="I17" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1494,8 +1539,11 @@
       <c r="I18" s="9">
         <v>1001.87</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
@@ -1520,8 +1568,11 @@
       <c r="I19" s="9">
         <v>991.36</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -1546,8 +1597,11 @@
       <c r="I20" s="9">
         <v>1019.23</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -1572,8 +1626,11 @@
       <c r="I21" s="9">
         <v>1001.01</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
@@ -1598,8 +1655,11 @@
       <c r="I22" s="9">
         <v>1289.46</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
@@ -1623,6 +1683,9 @@
       </c>
       <c r="I23" s="9">
         <v>1985.56</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
